--- a/Energy Consumption21.xlsx
+++ b/Energy Consumption21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.053723215536921</v>
+        <v>3.845242228636602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6357909141422159</v>
+        <v>0.9998226833738496</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.504287107294957</v>
+        <v>25.07371043957717</v>
       </c>
       <c r="C3" t="n">
-        <v>1.358211091564422</v>
+        <v>2.068103391235713</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.604732363564943</v>
+        <v>25.65468374236698</v>
       </c>
       <c r="C4" t="n">
-        <v>2.079972912763588</v>
+        <v>3.110062359233452</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.923486618090333</v>
+        <v>27.91288529815871</v>
       </c>
       <c r="C5" t="n">
-        <v>2.754420315746589</v>
+        <v>4.08970514279815</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.87600474318249</v>
+        <v>28.91380712782546</v>
       </c>
       <c r="C6" t="n">
-        <v>3.353961313897039</v>
+        <v>5.075379845029284</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.00441223463474</v>
+        <v>29.14230001936983</v>
       </c>
       <c r="C7" t="n">
-        <v>4.146362738164105</v>
+        <v>5.969848562088908</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.22789751084741</v>
+        <v>29.48342417755697</v>
       </c>
       <c r="C8" t="n">
-        <v>4.84642167995058</v>
+        <v>7.149124321892975</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.43957608789481</v>
+        <v>29.96986566075684</v>
       </c>
       <c r="C9" t="n">
-        <v>5.613947671718187</v>
+        <v>8.112475082044114</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33.75812010760542</v>
+        <v>32.07334668933994</v>
       </c>
       <c r="C10" t="n">
-        <v>6.411863166797549</v>
+        <v>9.404873050348177</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33.83249561973778</v>
+        <v>32.3816454016808</v>
       </c>
       <c r="C11" t="n">
-        <v>7.145688533626424</v>
+        <v>10.3114427496122</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>37.4210023316745</v>
+        <v>32.95165067672154</v>
       </c>
       <c r="C12" t="n">
-        <v>8.197722920557979</v>
+        <v>11.12516254731817</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37.4752621669797</v>
+        <v>34.28307761617335</v>
       </c>
       <c r="C13" t="n">
-        <v>8.839632391215938</v>
+        <v>12.31848329005918</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38.36720742715111</v>
+        <v>38.8960052130004</v>
       </c>
       <c r="C14" t="n">
-        <v>9.628740626408815</v>
+        <v>13.3823024333047</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.61036918508846</v>
+        <v>39.57473189550021</v>
       </c>
       <c r="C15" t="n">
-        <v>10.33090672801391</v>
+        <v>14.14624453542296</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39.67819426131697</v>
+        <v>40.32535466983223</v>
       </c>
       <c r="C16" t="n">
-        <v>11.14500521738615</v>
+        <v>15.40290054782038</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>42.1677282872388</v>
+        <v>40.50967663429866</v>
       </c>
       <c r="C17" t="n">
-        <v>11.83870758427637</v>
+        <v>16.41287610414732</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>43.94519873968786</v>
+        <v>44.81165618005017</v>
       </c>
       <c r="C18" t="n">
-        <v>12.66636720037697</v>
+        <v>17.38529914877047</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.06679695526333</v>
+        <v>44.9656611504394</v>
       </c>
       <c r="C19" t="n">
-        <v>13.39463176220216</v>
+        <v>18.51454150829601</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46.28169185398306</v>
+        <v>45.164887317025</v>
       </c>
       <c r="C20" t="n">
-        <v>14.30232492325356</v>
+        <v>19.6064332582989</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>48.03818556823114</v>
+        <v>49.7349672547123</v>
       </c>
       <c r="C21" t="n">
-        <v>15.08963670791426</v>
+        <v>21.25762276728439</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>51.97107269155509</v>
+        <v>54.13238876888794</v>
       </c>
       <c r="C22" t="n">
-        <v>15.88028538898625</v>
+        <v>22.28614701310642</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.03284062499218</v>
+        <v>54.50389650824205</v>
       </c>
       <c r="C23" t="n">
-        <v>16.59696679499461</v>
+        <v>23.08802612167823</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.22131191567949</v>
+        <v>55.66911451924658</v>
       </c>
       <c r="C24" t="n">
-        <v>17.45682871850386</v>
+        <v>23.88559366503355</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>57.31974691986243</v>
+        <v>55.86156743190278</v>
       </c>
       <c r="C25" t="n">
-        <v>18.10923551208824</v>
+        <v>24.88258016925527</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>57.39094481308054</v>
+        <v>60.5359612768062</v>
       </c>
       <c r="C26" t="n">
-        <v>18.81626330605777</v>
+        <v>25.99777611044968</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>57.4500948621619</v>
+        <v>62.99154926069112</v>
       </c>
       <c r="C27" t="n">
-        <v>19.65809205985608</v>
+        <v>26.92839724740386</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.56155454223499</v>
+        <v>68.58812630996238</v>
       </c>
       <c r="C28" t="n">
-        <v>20.36256524198075</v>
+        <v>27.78715922552734</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.90161506500239</v>
+        <v>80.40054993611774</v>
       </c>
       <c r="C29" t="n">
-        <v>21.31072125357248</v>
+        <v>28.81516408224313</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>59.72617563750761</v>
+        <v>80.73244895813926</v>
       </c>
       <c r="C30" t="n">
-        <v>22.06349608411642</v>
+        <v>29.92394694328355</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63.42832958343822</v>
+        <v>81.23857901461813</v>
       </c>
       <c r="C31" t="n">
-        <v>22.78927696840456</v>
+        <v>31.08782729358017</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.33722140682947</v>
+        <v>81.42021646662738</v>
       </c>
       <c r="C32" t="n">
-        <v>23.4390942365579</v>
+        <v>32.28132631553929</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>65.40700459311634</v>
+        <v>84.71717911734828</v>
       </c>
       <c r="C33" t="n">
-        <v>24.41186910310569</v>
+        <v>32.97373413761714</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.34844710041742</v>
+        <v>86.45272846078528</v>
       </c>
       <c r="C34" t="n">
-        <v>25.34956150164806</v>
+        <v>33.81089335923345</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.33731583308904</v>
+        <v>88.32109069469711</v>
       </c>
       <c r="C35" t="n">
-        <v>25.9899834359968</v>
+        <v>34.74854158632287</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>80.26764060707453</v>
+        <v>88.61342816888826</v>
       </c>
       <c r="C36" t="n">
-        <v>26.7614519409565</v>
+        <v>35.54264791636475</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>82.14288671783302</v>
+        <v>89.34164087995555</v>
       </c>
       <c r="C37" t="n">
-        <v>27.48748695326815</v>
+        <v>36.92059827604613</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>85.32218464600336</v>
+        <v>90.47004919497394</v>
       </c>
       <c r="C38" t="n">
-        <v>28.29178259795901</v>
+        <v>38.03879739356282</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85.93404052853064</v>
+        <v>90.78818781179795</v>
       </c>
       <c r="C39" t="n">
-        <v>29.12040194245365</v>
+        <v>39.2520124901669</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>88.25800522030319</v>
+        <v>95.31335964346761</v>
       </c>
       <c r="C40" t="n">
-        <v>29.89421863194177</v>
+        <v>40.16899343180638</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>88.48899118462849</v>
+        <v>95.45185728489783</v>
       </c>
       <c r="C41" t="n">
-        <v>30.57632591643663</v>
+        <v>41.11270702693751</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>88.58029699028671</v>
+        <v>96.04692340135887</v>
       </c>
       <c r="C42" t="n">
-        <v>31.45196713873783</v>
+        <v>42.08216957312152</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90.26794718259636</v>
+        <v>97.15846942181214</v>
       </c>
       <c r="C43" t="n">
-        <v>32.1800655641186</v>
+        <v>43.54525858536675</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>94.70065046431125</v>
+        <v>97.43145065456184</v>
       </c>
       <c r="C44" t="n">
-        <v>33.02218147252929</v>
+        <v>44.79975544759017</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,21 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>94.76412911791405</v>
+        <v>97.69966648467802</v>
       </c>
       <c r="C45" t="n">
-        <v>33.72798984818894</v>
+        <v>46.05774284753939</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>97.82902319163195</v>
+      </c>
+      <c r="C46" t="n">
+        <v>46.93815051154472</v>
       </c>
     </row>
   </sheetData>
